--- a/OREI_files/40-herd data/OREI_DHIA_numbers_stats_and_survey_extras.xlsx
+++ b/OREI_files/40-herd data/OREI_DHIA_numbers_stats_and_survey_extras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caitl\OneDrive\Documents\OREI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1087" documentId="8_{64DA41BF-0713-4381-990F-D6297067C4EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0838E26A-2B1F-47AB-BEE5-2DB664A391BF}"/>
+  <xr:revisionPtr revIDLastSave="1088" documentId="8_{64DA41BF-0713-4381-990F-D6297067C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F573CF-6376-4C18-A9C9-3DFB52C2F1B1}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="800" windowWidth="10250" windowHeight="8710" tabRatio="914" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="914" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="DHIA numbers_and_stats" sheetId="3" r:id="rId1"/>
@@ -41,17 +41,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="336">
   <si>
     <t>Question</t>
   </si>
@@ -678,9 +673,6 @@
   </si>
   <si>
     <t>Cure%</t>
-  </si>
-  <si>
-    <t>4/49/19</t>
   </si>
   <si>
     <t>High cows 3/18/19</t>
@@ -1231,9 +1223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1259,6 +1248,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,9 +1573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A619F06-D277-4B9C-BE71-8E742E63BE26}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1621,8 +1613,8 @@
       <c r="E1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>335</v>
+      <c r="F1" s="33" t="s">
+        <v>334</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>199</v>
@@ -1672,7 +1664,7 @@
         <v>43558</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="11">
         <v>43563</v>
@@ -1724,8 +1716,8 @@
       <c r="G3" s="19">
         <v>43447</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>209</v>
+      <c r="H3" s="35">
+        <v>43584</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -1745,7 +1737,7 @@
         <v>43565</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="19">
         <v>43447</v>
@@ -1810,7 +1802,7 @@
         <v>43570</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="19">
         <v>43404</v>
@@ -1860,7 +1852,7 @@
         <v>43577</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="11">
         <v>43561</v>
@@ -1904,13 +1896,13 @@
         <v>87</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8" s="11">
         <v>43577</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" s="11">
         <v>43547</v>
@@ -1921,32 +1913,32 @@
       <c r="I8" s="16">
         <v>4</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <f>(I8/(I8+K8+M8+O8))*100</f>
         <v>10.526315789473683</v>
       </c>
       <c r="K8" s="17">
         <v>7</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <f>(K8/(I8+K8+M8+O8))*100</f>
         <v>18.421052631578945</v>
       </c>
       <c r="M8" s="16">
         <v>26</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <f>(M8/38)*100</f>
         <v>68.421052631578945</v>
       </c>
       <c r="O8" s="17">
         <v>1</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="23">
         <f>(O8/38)*100</f>
         <v>2.6315789473684208</v>
       </c>
-      <c r="Q8" s="25"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1959,13 +1951,13 @@
         <v>99</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="11">
         <v>43578</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="11">
         <v>43571</v>
@@ -2009,13 +2001,13 @@
         <v>108</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="11">
         <v>43579</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" s="11">
         <v>43558</v>
@@ -2065,7 +2057,7 @@
         <v>43584</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="11">
         <v>43546</v>
@@ -2076,32 +2068,32 @@
       <c r="I11" s="16">
         <v>2</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <f>(I11/71)*100</f>
         <v>2.8169014084507045</v>
       </c>
       <c r="K11" s="17">
         <v>9</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="23">
         <f>(K11/71)*100</f>
         <v>12.676056338028168</v>
       </c>
       <c r="M11" s="16">
         <v>57</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <f>(M11/71)*100</f>
         <v>80.281690140845072</v>
       </c>
       <c r="O11" s="17">
         <v>3</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="23">
         <f>(O11/71)*100</f>
         <v>4.225352112676056</v>
       </c>
-      <c r="R11" s="25"/>
+      <c r="R11" s="24"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2120,7 +2112,7 @@
         <v>43584</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" s="11">
         <v>43559</v>
@@ -2171,7 +2163,7 @@
         <v>43601</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="11">
         <v>43549</v>
@@ -2221,7 +2213,7 @@
         <v>43601</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G14" s="11">
         <v>43557</v>
@@ -2271,7 +2263,7 @@
         <v>43591</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G15" s="11">
         <v>43571</v>
@@ -2321,7 +2313,7 @@
         <v>43593</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G16" s="11">
         <v>43546</v>
@@ -2371,7 +2363,7 @@
         <v>43593</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G17" s="11">
         <v>43549</v>
@@ -2421,7 +2413,7 @@
         <v>43593</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G18" s="11">
         <v>43552</v>
@@ -2471,7 +2463,7 @@
         <v>43595</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G19" s="11">
         <v>43564</v>
@@ -2521,7 +2513,7 @@
         <v>43595</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G20" s="11">
         <v>43542</v>
@@ -2571,7 +2563,7 @@
         <v>43599</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G21" s="11">
         <v>43180</v>
@@ -2621,7 +2613,7 @@
         <v>43599</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G22" s="11">
         <v>43552</v>
@@ -2717,28 +2709,28 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
-        <v>226</v>
+      <c r="B9" s="20" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2756,15 +2748,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="35"/>
-    <col min="4" max="4" width="16.08984375" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="35"/>
+    <col min="1" max="3" width="8.7265625" style="34"/>
+    <col min="4" max="4" width="16.08984375" style="34" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="34"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C3"/>
       <c r="D3" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3"/>
     </row>
@@ -2929,52 +2921,52 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3036,48 +3028,48 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
-        <v>241</v>
+      <c r="B7" s="20" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3150,88 +3142,88 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
-        <v>250</v>
+      <c r="B8" s="20" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3282,28 +3274,28 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
-        <v>267</v>
+      <c r="B6" s="20" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3343,33 +3335,33 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
-        <v>272</v>
+      <c r="B4" s="20" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3408,68 +3400,68 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="21" t="s">
-        <v>272</v>
+      <c r="B5" s="20" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3491,58 +3483,58 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
-        <v>290</v>
+      <c r="C4" s="20" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3564,63 +3556,63 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
-        <v>301</v>
+      <c r="C4" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3632,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A325F32-2EB8-4C84-A5E0-DDF749C651A6}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A13" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3650,24 +3642,24 @@
     </row>
     <row r="2" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3716,173 +3708,173 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>863</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>836</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>741</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>32</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>82</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>330</v>
+      <c r="C20" s="31" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>31</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>1003</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>838</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>63</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>59</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>69</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="29">
         <v>863</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <v>1010</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="29">
         <v>741</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <v>842</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="29">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="30">
+      <c r="B29" s="29">
         <v>40</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="29">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>97</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="30">
+      <c r="B31" s="29">
         <v>74</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="29">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <v>86</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="29">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <v>93</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="29">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>75</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="29">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="30">
+      <c r="B35" s="29">
         <v>85</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="29">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="30">
+      <c r="B36" s="29">
         <v>42</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="30">
+      <c r="B37" s="29">
         <v>17</v>
       </c>
-      <c r="C37" s="31"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="29">
+      <c r="B38" s="28">
         <v>98</v>
       </c>
-      <c r="C38" s="31"/>
+      <c r="C38" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3904,33 +3896,33 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="21" t="s">
-        <v>313</v>
+      <c r="B6" s="20" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3980,8 +3972,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
-        <v>319</v>
+      <c r="B8" s="20" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4082,7 +4074,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4142,13 +4134,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4164,13 +4156,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
         <v>331</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>332</v>
-      </c>
-      <c r="C4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4194,7 +4186,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4277,12 +4269,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4322,7 +4314,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
@@ -4349,7 +4341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63855D4-DF12-48B3-BCF4-95AE39E77681}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4373,7 +4365,7 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4406,7 +4398,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -4452,7 +4444,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4513,7 +4505,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4546,7 +4538,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4574,7 +4566,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4584,7 +4576,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4604,12 +4596,12 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -4647,7 +4639,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4696,107 +4688,107 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>585</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>656</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>664</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>667</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>682</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>685</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>701</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="26"/>
+      <c r="C15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>717</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>719</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="26"/>
+      <c r="C17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>731</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>734</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>747</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25"/>
     </row>
   </sheetData>
-  <sortState ref="C9:C20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C9:C20">
     <sortCondition ref="C9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4878,18 +4870,18 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
-        <v>220</v>
+      <c r="B9" s="20" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4899,7 +4891,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/OREI_files/40-herd data/OREI_DHIA_numbers_stats_and_survey_extras.xlsx
+++ b/OREI_files/40-herd data/OREI_DHIA_numbers_stats_and_survey_extras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1088" documentId="8_{64DA41BF-0713-4381-990F-D6297067C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F573CF-6376-4C18-A9C9-3DFB52C2F1B1}"/>
+  <xr:revisionPtr revIDLastSave="1181" documentId="8_{64DA41BF-0713-4381-990F-D6297067C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC0247B4-E9AF-43F6-8EE4-B60C28AB3EA5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="914" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="914" firstSheet="15" activeTab="22" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="DHIA numbers_and_stats" sheetId="3" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="Pembrook Heritage 5.10" sheetId="21" r:id="rId20"/>
     <sheet name="Holyoke 5.14" sheetId="22" r:id="rId21"/>
     <sheet name="Bouchard 5.14" sheetId="23" r:id="rId22"/>
+    <sheet name="North Wind (Lynd 7.26.2021)" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="375">
   <si>
     <t>Question</t>
   </si>
@@ -1054,6 +1055,123 @@
   </si>
   <si>
     <t>High cows 4/28/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium- one of the major reasons they cull a cow. Don't have problems with cell count, put a lot of time into managing mastitis. Know what cows to keep for calf milk, do CMT and milk cows into the pail a lot during milking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah- keep and milk into pail for calves. Milk them until lactation is over. Do actively identify and manage Staph. aureus cows. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use CMT paddle, have conductivity readers on milk meters which alerts them (but interpreting these can be kind of tricky). </t>
+  </si>
+  <si>
+    <t>Estimate ~6 cows out of 60 milking on average.</t>
+  </si>
+  <si>
+    <t>Yes- Staph. aureus, streps that survive the dry period. Staph. species cultured seem to be more transient infections. Often will get "no growths."</t>
+  </si>
+  <si>
+    <t>How do you manage these cows with chronic mastitis?</t>
+  </si>
+  <si>
+    <t>6.f.i</t>
+  </si>
+  <si>
+    <t>Milk into the pail, feed to calves. Will dry off quarters if it's a chronic thing. If a front quarter, more likely to dry if off; if rear, more likely to keep milking it through (function of how easy it is to ue the quartermilker to put in the pail). If a cow already has two dry teats, will just sell instead of drying off a third.</t>
+  </si>
+  <si>
+    <t>6.f.ii</t>
+  </si>
+  <si>
+    <t>If not specifically addressed in 6.f.i: Are these cows housed differently than the rest of the herd?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No- maybe at some point in future would like to have separate area for nurse cows. </t>
+  </si>
+  <si>
+    <t>6.f.iii</t>
+  </si>
+  <si>
+    <t>If not specifically addressed in 6.f.i: Are these cows milked in a different way than the rest of the herd?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes- previously described- put bands on these cows. Specifically, if they have Staph. aureus, will try and milk them last. If they come through in the middle or early in milking, will just stop using that machine after them. </t>
+  </si>
+  <si>
+    <t>6.f.iv.</t>
+  </si>
+  <si>
+    <t>If not specifically addressed in 6.f.i: Is the milk from these cows handled in a different way than the rest of the herd?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk that is not from known Staph. aureus cows but that has high cell count goes into pail and is fed to calves. Milk from known Staph. aureus cows NOT fed to calves; goes into tank. </t>
+  </si>
+  <si>
+    <t>6.g</t>
+  </si>
+  <si>
+    <t>What do you do on your farm generally to reduce a cow's risk of getting mastitis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing in particular. Gradually dry cows off- go to 1x day for awhile, gradually skip more and more milkings. </t>
+  </si>
+  <si>
+    <t>Tilling the bedding, keeping it hot.</t>
+  </si>
+  <si>
+    <t> Is a milk quality premium paid by your milk cooperative a motivator for your milking hygiene and mastitis control practices?</t>
+  </si>
+  <si>
+    <t>Check for abnormal milk every milking, see abnormal milk on filter, see a swollen quarter (especially 1 or 2 milkings before the actual event)</t>
+  </si>
+  <si>
+    <t>CMT positive (does CMT for all fresh cows when they go from the pail to the tank, does semi-random samplings for CMT-ing cows, if they get flagged for conductivity)</t>
+  </si>
+  <si>
+    <t>7.bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe their outdoor turn-out space:</t>
+  </si>
+  <si>
+    <t>Have continuous access; bedded pack open to yard with feed in headlocks</t>
+  </si>
+  <si>
+    <t>Lactating: Can you describe how you initially build your pack after completely removing the previous pack and starting over?</t>
+  </si>
+  <si>
+    <t>14.q.i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start on top of some of previous year's pack, then add sawdust to the top of it. Let cows on it first, then till sawdust in. Add some more new sawdust every other day for awhile. </t>
+  </si>
+  <si>
+    <t>Lactating: If you changed to a bedded pack from another housing style, do you feel that cow hygiene was affected? If so, how?</t>
+  </si>
+  <si>
+    <t>14.r.i</t>
+  </si>
+  <si>
+    <t>Used to have a tie barn before going to a bedded pack. Hard to keep cows clean in the tie barn without using a lot of bedding material (didn't have a lot of bedding material around when first started). Cow hygiene was not a driving force in switching housing systems.</t>
+  </si>
+  <si>
+    <t>Lactating: If you changed to a bedded pack from another housing style, do you feel that mastitis incidence was affected? If so, how?</t>
+  </si>
+  <si>
+    <t>14.s.i</t>
+  </si>
+  <si>
+    <t>Not really</t>
+  </si>
+  <si>
+    <t>Lactating: Anything else about your pack management and construction you feel we should know that we didn't cover?</t>
+  </si>
+  <si>
+    <t>14.t.i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would love to be able to use short, chopped straw. Hay is too long to till in the pack (gets all tangeled up). Don't have equipment needed to cut straw to short length. </t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A619F06-D277-4B9C-BE71-8E742E63BE26}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="R11" sqref="R11"/>
     </sheetView>
@@ -3308,7 +3426,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3374,7 +3492,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3624,7 +3742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A325F32-2EB8-4C84-A5E0-DDF749C651A6}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4105,6 +4223,240 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8E823F-C40B-48D9-A5AC-A99CADC0714F}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="67.7265625" customWidth="1"/>
+    <col min="3" max="3" width="68.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
